--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.889664308775576</v>
+        <v>13.889664295500523</v>
       </c>
       <c r="C2">
-        <v>15.644413353290791</v>
+        <v>15.644413349156169</v>
       </c>
       <c r="D2">
-        <v>14.394903280698074</v>
+        <v>14.394903274969495</v>
       </c>
       <c r="E2">
-        <v>16.415883183150619</v>
+        <v>16.415883175957401</v>
       </c>
       <c r="F2">
-        <v>10.944858368975487</v>
+        <v>10.944858369167482</v>
       </c>
       <c r="G2">
-        <v>13.305834956947077</v>
+        <v>13.305834953871271</v>
       </c>
       <c r="H2">
-        <v>11.177022610677025</v>
+        <v>11.177022598973604</v>
       </c>
       <c r="I2">
-        <v>12.235409065637453</v>
+        <v>12.235409065572373</v>
       </c>
       <c r="J2">
-        <v>16.500428818095621</v>
+        <v>16.500428815350087</v>
       </c>
       <c r="K2">
-        <v>12.475442964704046</v>
+        <v>12.475442961205092</v>
       </c>
       <c r="L2">
-        <v>12.084254181227799</v>
+        <v>12.084254176730431</v>
       </c>
       <c r="M2">
-        <v>13.711446977780334</v>
+        <v>13.711446971445303</v>
       </c>
       <c r="N2">
-        <v>13.056428668816276</v>
+        <v>13.056428665751479</v>
       </c>
       <c r="O2">
-        <v>11.637904819727909</v>
+        <v>11.637904816096672</v>
       </c>
       <c r="P2">
-        <v>14.235354712580047</v>
+        <v>14.23535470472777</v>
       </c>
       <c r="Q2">
-        <v>12.804598085174659</v>
+        <v>12.804598079149832</v>
       </c>
       <c r="R2">
-        <v>11.559030910670156</v>
+        <v>11.559030914856949</v>
       </c>
       <c r="S2">
-        <v>17.119638307167534</v>
+        <v>17.119638311549025</v>
       </c>
       <c r="T2">
-        <v>13.055880601739755</v>
+        <v>13.0558806026017</v>
       </c>
       <c r="U2">
-        <v>14.819001962644149</v>
+        <v>14.819001958075459</v>
       </c>
       <c r="V2">
-        <v>10.300966125716471</v>
+        <v>10.300966124063216</v>
       </c>
       <c r="W2">
-        <v>9.7525508220767012</v>
+        <v>9.7525508150887514</v>
       </c>
       <c r="X2">
-        <v>14.137962306712545</v>
+        <v>14.137962301976964</v>
       </c>
       <c r="Y2">
-        <v>15.257026518395428</v>
+        <v>15.257026511639571</v>
       </c>
       <c r="Z2">
-        <v>14.957034543430673</v>
+        <v>14.957034538394881</v>
       </c>
       <c r="AA2">
-        <v>16.789936493170551</v>
+        <v>16.789936482063627</v>
       </c>
       <c r="AB2">
-        <v>18.285557712639626</v>
+        <v>18.285557693148522</v>
       </c>
       <c r="AC2">
-        <v>13.402844222951341</v>
+        <v>13.402844223210932</v>
       </c>
       <c r="AD2">
-        <v>17.717222060292652</v>
+        <v>17.717222041289986</v>
       </c>
       <c r="AE2">
-        <v>12.575077465661142</v>
+        <v>12.575077460532025</v>
       </c>
       <c r="AF2">
-        <v>14.162486025666707</v>
+        <v>14.162486016752162</v>
       </c>
       <c r="AG2">
-        <v>11.906108138187301</v>
+        <v>11.906108136500425</v>
       </c>
       <c r="AH2">
-        <v>12.6776368342881</v>
+        <v>12.677636828902095</v>
       </c>
       <c r="AI2">
-        <v>19.122121926847875</v>
+        <v>19.122121916669133</v>
       </c>
       <c r="AJ2">
-        <v>12.713332876514519</v>
+        <v>12.713332871769945</v>
       </c>
       <c r="AK2">
-        <v>12.994093793607986</v>
+        <v>12.994093787380526</v>
       </c>
       <c r="AL2">
-        <v>14.60234301824285</v>
+        <v>14.602343015044225</v>
       </c>
       <c r="AM2">
-        <v>13.397957004328893</v>
+        <v>13.397956994325256</v>
       </c>
       <c r="AN2">
-        <v>12.618210605934607</v>
+        <v>12.618210600673645</v>
       </c>
       <c r="AO2">
-        <v>15.967214474450037</v>
+        <v>15.967214463678687</v>
       </c>
       <c r="AP2">
-        <v>13.739175549242574</v>
+        <v>13.739175544269354</v>
       </c>
       <c r="AQ2">
-        <v>11.654864854970908</v>
+        <v>11.654864853169308</v>
       </c>
       <c r="AR2">
-        <v>17.017051633742106</v>
+        <v>17.017051631487305</v>
       </c>
       <c r="AS2">
-        <v>13.406283130761745</v>
+        <v>13.406283125652987</v>
       </c>
       <c r="AT2">
-        <v>16.623106287394755</v>
+        <v>16.623106280159984</v>
       </c>
       <c r="AU2">
-        <v>11.789947038018182</v>
+        <v>11.789947036095329</v>
       </c>
       <c r="AV2">
-        <v>11.514375013726799</v>
+        <v>11.514374993883587</v>
       </c>
       <c r="AW2">
-        <v>14.119248317403674</v>
+        <v>14.119248310184467</v>
       </c>
       <c r="AX2">
-        <v>16.494048523201652</v>
+        <v>16.494048515852743</v>
       </c>
       <c r="AY2">
-        <v>16.293439159260185</v>
+        <v>16.293439154837319</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.085241573602712</v>
+        <v>15.08524154304394</v>
       </c>
       <c r="C3">
-        <v>14.151618194607272</v>
+        <v>14.151618187265974</v>
       </c>
       <c r="D3">
-        <v>15.982707771958907</v>
+        <v>15.982707751375441</v>
       </c>
       <c r="E3">
-        <v>15.189677107815495</v>
+        <v>15.189677103447577</v>
       </c>
       <c r="F3">
-        <v>10.666600736648498</v>
+        <v>10.666600729824761</v>
       </c>
       <c r="G3">
-        <v>14.37539829844215</v>
+        <v>14.375398291447125</v>
       </c>
       <c r="H3">
-        <v>10.397545586986036</v>
+        <v>10.397545589303057</v>
       </c>
       <c r="I3">
-        <v>12.87100775581867</v>
+        <v>12.871007752794524</v>
       </c>
       <c r="J3">
-        <v>17.174599981826844</v>
+        <v>17.174599969091965</v>
       </c>
       <c r="K3">
-        <v>14.752304432006472</v>
+        <v>14.752304430532742</v>
       </c>
       <c r="L3">
-        <v>12.963884693915809</v>
+        <v>12.963884687652588</v>
       </c>
       <c r="M3">
-        <v>14.264014268482047</v>
+        <v>14.263993550202301</v>
       </c>
       <c r="N3">
-        <v>13.200961281454104</v>
+        <v>13.20096127938978</v>
       </c>
       <c r="O3">
-        <v>9.7293749978332258</v>
+        <v>9.7293749986538707</v>
       </c>
       <c r="P3">
-        <v>14.735695474002741</v>
+        <v>14.735695465215606</v>
       </c>
       <c r="Q3">
-        <v>11.147535816639689</v>
+        <v>11.147535810693508</v>
       </c>
       <c r="R3">
-        <v>9.6108703108301761</v>
+        <v>9.6108703042399721</v>
       </c>
       <c r="S3">
-        <v>15.650272165186566</v>
+        <v>15.650272159339076</v>
       </c>
       <c r="T3">
-        <v>13.378266847516841</v>
+        <v>13.378266842741882</v>
       </c>
       <c r="U3">
-        <v>15.846887935224292</v>
+        <v>15.846887928632631</v>
       </c>
       <c r="V3">
-        <v>11.731151588924266</v>
+        <v>11.731151591109221</v>
       </c>
       <c r="W3">
-        <v>11.441956012193586</v>
+        <v>11.441956002029684</v>
       </c>
       <c r="X3">
-        <v>12.862654486361786</v>
+        <v>12.862654482834257</v>
       </c>
       <c r="Y3">
-        <v>17.703650706320154</v>
+        <v>17.703650696198515</v>
       </c>
       <c r="Z3">
-        <v>15.829330923352492</v>
+        <v>15.829330917911175</v>
       </c>
       <c r="AA3">
-        <v>16.4771203639318</v>
+        <v>16.477120355114934</v>
       </c>
       <c r="AB3">
-        <v>16.015801332495634</v>
+        <v>16.015801324117312</v>
       </c>
       <c r="AC3">
-        <v>15.661963089770492</v>
+        <v>15.661963080988784</v>
       </c>
       <c r="AD3">
-        <v>17.752852404220949</v>
+        <v>17.752852399187436</v>
       </c>
       <c r="AE3">
-        <v>12.94287600034095</v>
+        <v>12.942875994464631</v>
       </c>
       <c r="AF3">
-        <v>15.08125450684909</v>
+        <v>15.081254497216683</v>
       </c>
       <c r="AG3">
-        <v>12.50429131871644</v>
+        <v>12.50429131309593</v>
       </c>
       <c r="AH3">
-        <v>13.991310977707011</v>
+        <v>13.991310972403436</v>
       </c>
       <c r="AI3">
-        <v>21.626962812927314</v>
+        <v>21.626962805513809</v>
       </c>
       <c r="AJ3">
-        <v>13.689053842536927</v>
+        <v>13.689053833304746</v>
       </c>
       <c r="AK3">
-        <v>14.33291146407212</v>
+        <v>14.332911456629342</v>
       </c>
       <c r="AL3">
-        <v>14.464357162290842</v>
+        <v>14.464357156794232</v>
       </c>
       <c r="AM3">
-        <v>14.452074856008318</v>
+        <v>14.452074840238033</v>
       </c>
       <c r="AN3">
-        <v>11.023951271933282</v>
+        <v>11.023951267852471</v>
       </c>
       <c r="AO3">
-        <v>16.033480069903526</v>
+        <v>16.033480055628804</v>
       </c>
       <c r="AP3">
-        <v>11.483447377001339</v>
+        <v>11.483447369690525</v>
       </c>
       <c r="AQ3">
-        <v>11.154858932838014</v>
+        <v>11.154858928796816</v>
       </c>
       <c r="AR3">
-        <v>17.87150654801264</v>
+        <v>17.871506541731073</v>
       </c>
       <c r="AS3">
-        <v>12.583967907015586</v>
+        <v>12.583967904392157</v>
       </c>
       <c r="AT3">
-        <v>16.087236978354909</v>
+        <v>16.087236971264058</v>
       </c>
       <c r="AU3">
-        <v>11.574596145673176</v>
+        <v>11.574596144328986</v>
       </c>
       <c r="AV3">
-        <v>11.136845185044377</v>
+        <v>11.136845173380454</v>
       </c>
       <c r="AW3">
-        <v>13.51830386986391</v>
+        <v>13.518303862281977</v>
       </c>
       <c r="AX3">
-        <v>15.49592629802841</v>
+        <v>15.495926292707354</v>
       </c>
       <c r="AY3">
-        <v>17.769018877987804</v>
+        <v>17.769018870628777</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.889664295500523</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>15.644413349156169</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>14.394903274969495</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16.415883175957401</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.944858369167482</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.305834953871271</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>11.177022598973604</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.235409065572373</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16.500428815350087</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.475442961205092</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>12.084254176730431</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.711446971445303</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.056428665751479</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.637904816096672</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.23535470472777</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.804598079149832</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>11.559030914856949</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>17.119638311549025</v>
+        <v>15.685471098810917</v>
       </c>
       <c r="T2">
         <v>13.0558806026017</v>
@@ -588,55 +477,55 @@
         <v>14.957034538394881</v>
       </c>
       <c r="AA2">
-        <v>16.789936482063627</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>18.285557693148522</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>13.402844223210932</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>17.717222041289986</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12.575077460532025</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>14.162486016752162</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>11.906108136500425</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.677636828902095</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>19.122121916669133</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>12.713332871769945</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>12.994093787380526</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>14.602343015044225</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>13.397956994325256</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>12.618210600673645</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>15.967214463678687</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.739175544269354</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>11.654864853169308</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>17.017051631487305</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>15.08524154304394</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>14.151618187265974</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.982707751375441</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>15.189677103447577</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.666600729824761</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.375398291447125</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.397545589303057</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.871007752794524</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>17.174599969091965</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.752304430532742</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.963884687652588</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.263993550202301</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.20096127938978</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.7293749986538707</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.735695465215606</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.147535810693508</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>9.6108703042399721</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>15.650272159339076</v>
@@ -743,55 +629,55 @@
         <v>15.829330917911175</v>
       </c>
       <c r="AA3">
-        <v>16.477120355114934</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>16.015801324117312</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>15.661963080988784</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>17.752852399187436</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.942875994464631</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>15.081254497216683</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>12.50429131309593</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>13.991310972403436</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>21.626962805513809</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>13.689053833304746</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>14.332911456629342</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>14.464357156794232</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>14.452074840238033</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>11.023951267852471</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>16.033480055628804</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>11.483447369690525</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>11.154858928796816</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>17.871506541731073</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.889664308775576</v>
+        <v>11.637904816096672</v>
       </c>
       <c r="C2">
-        <v>15.171606135582511</v>
+        <v>11.559030914856949</v>
       </c>
       <c r="D2">
-        <v>14.394903280698074</v>
+        <v>12.618210600673645</v>
       </c>
       <c r="E2">
-        <v>16.415883183150619</v>
+        <v>11.654864853169308</v>
       </c>
       <c r="F2">
         <v>10.944858368975487</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.085241573602712</v>
+        <v>11.090405638127915</v>
       </c>
       <c r="C3">
-        <v>14.151618194607272</v>
+        <v>9.6108703042399721</v>
       </c>
       <c r="D3">
-        <v>15.982707771958907</v>
+        <v>11.196423106175704</v>
       </c>
       <c r="E3">
-        <v>15.189677107815495</v>
+        <v>11.341686551876091</v>
       </c>
       <c r="F3">
         <v>10.666600736648498</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.889664308775576</v>
+        <v>13.06572405778523</v>
       </c>
       <c r="C2">
-        <v>15.171606135582511</v>
+        <v>12.069526566338684</v>
       </c>
       <c r="D2">
-        <v>14.394903280698074</v>
+        <v>13.793270862959565</v>
       </c>
       <c r="E2">
-        <v>16.415883183150619</v>
+        <v>13.066501868432459</v>
       </c>
       <c r="F2">
         <v>10.944858368975487</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.085241573602712</v>
+        <v>13.20096127938978</v>
       </c>
       <c r="C3">
-        <v>14.151618194607272</v>
+        <v>11.090405638127915</v>
       </c>
       <c r="D3">
-        <v>15.982707771958907</v>
+        <v>14.452074840238033</v>
       </c>
       <c r="E3">
-        <v>16.377190095262844</v>
+        <v>11.196423106175704</v>
       </c>
       <c r="F3">
         <v>10.666600736648498</v>

--- a/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_licht_fas_length_GM_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.926269235052851</v>
+      </c>
+      <c r="C2">
+        <v>15.171606118753028</v>
+      </c>
+      <c r="D2">
+        <v>15.091686650985967</v>
+      </c>
+      <c r="E2">
+        <v>16.636120287478064</v>
+      </c>
+      <c r="F2">
+        <v>10.944858369167482</v>
+      </c>
+      <c r="G2">
+        <v>14.186717986792075</v>
+      </c>
+      <c r="H2">
+        <v>11.23374549872783</v>
+      </c>
+      <c r="I2">
+        <v>12.995443520862315</v>
+      </c>
+      <c r="J2">
+        <v>16.535511844054788</v>
+      </c>
+      <c r="K2">
+        <v>12.687302198835981</v>
+      </c>
+      <c r="L2">
+        <v>12.875520500525642</v>
+      </c>
+      <c r="M2">
+        <v>15.14796848163151</v>
+      </c>
+      <c r="N2">
         <v>13.06572405778523</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>12.069526566338684</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>14.553224989148866</v>
+      </c>
+      <c r="Q2">
+        <v>12.804598079149832</v>
+      </c>
+      <c r="R2">
+        <v>11.559030914856949</v>
+      </c>
+      <c r="T2">
+        <v>12.477663673453621</v>
+      </c>
+      <c r="U2">
+        <v>15.060853930599173</v>
+      </c>
+      <c r="V2">
+        <v>11.485066905836765</v>
+      </c>
+      <c r="W2">
+        <v>10.476582942264697</v>
+      </c>
+      <c r="X2">
+        <v>14.481811277252895</v>
+      </c>
+      <c r="Y2">
+        <v>15.372366483224297</v>
+      </c>
+      <c r="Z2">
+        <v>14.957034538394881</v>
+      </c>
+      <c r="AA2">
+        <v>16.921387635347219</v>
+      </c>
+      <c r="AB2">
+        <v>18.285557693148522</v>
+      </c>
+      <c r="AC2">
+        <v>14.165980887604332</v>
+      </c>
+      <c r="AD2">
+        <v>18.288876990375915</v>
+      </c>
+      <c r="AE2">
+        <v>12.575077460532025</v>
+      </c>
+      <c r="AF2">
+        <v>14.162486016752162</v>
+      </c>
+      <c r="AG2">
+        <v>11.909659308022055</v>
+      </c>
+      <c r="AH2">
+        <v>13.021013359537301</v>
+      </c>
+      <c r="AI2">
+        <v>19.215919859115381</v>
+      </c>
+      <c r="AJ2">
+        <v>13.160191088414363</v>
+      </c>
+      <c r="AK2">
+        <v>13.409072213695779</v>
+      </c>
+      <c r="AL2">
+        <v>14.602343015044225</v>
+      </c>
+      <c r="AM2">
         <v>13.793270862959565</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>13.066501868432459</v>
       </c>
-      <c r="F2">
-        <v>10.944858368975487</v>
-      </c>
-      <c r="G2">
-        <v>14.186717993618172</v>
-      </c>
-      <c r="H2">
-        <v>11.177022610677025</v>
-      </c>
-      <c r="I2">
-        <v>12.98399226787201</v>
-      </c>
-      <c r="J2">
-        <v>16.500428818095621</v>
-      </c>
-      <c r="K2">
-        <v>12.475442964704046</v>
-      </c>
-      <c r="L2">
-        <v>12.281478499638666</v>
-      </c>
-      <c r="M2">
-        <v>15.147968483457925</v>
-      </c>
-      <c r="N2">
-        <v>12.91104699726241</v>
-      </c>
-      <c r="O2">
-        <v>11.637904819727909</v>
-      </c>
-      <c r="P2">
-        <v>14.553225000338834</v>
-      </c>
-      <c r="Q2">
-        <v>12.804598085174659</v>
-      </c>
-      <c r="R2">
-        <v>11.559030910670156</v>
-      </c>
-      <c r="T2">
-        <v>12.47766367271632</v>
-      </c>
-      <c r="U2">
-        <v>14.819001962644149</v>
-      </c>
-      <c r="V2">
-        <v>10.856958032119659</v>
-      </c>
-      <c r="W2">
-        <v>9.7561467859651838</v>
-      </c>
-      <c r="X2">
-        <v>14.137962306712545</v>
-      </c>
-      <c r="Y2">
-        <v>15.257026518395428</v>
-      </c>
-      <c r="Z2">
-        <v>14.957034543430673</v>
-      </c>
-      <c r="AA2">
-        <v>16.789936493170551</v>
-      </c>
-      <c r="AB2">
-        <v>18.285557712639626</v>
-      </c>
-      <c r="AC2">
-        <v>13.402844222951341</v>
-      </c>
-      <c r="AD2">
-        <v>17.717222060292652</v>
-      </c>
-      <c r="AE2">
-        <v>12.575077465661142</v>
-      </c>
-      <c r="AF2">
-        <v>14.162486025666707</v>
-      </c>
-      <c r="AG2">
-        <v>11.906108138187301</v>
-      </c>
-      <c r="AH2">
-        <v>12.6776368342881</v>
-      </c>
-      <c r="AI2">
-        <v>19.122121926847875</v>
-      </c>
-      <c r="AJ2">
-        <v>12.713332876514519</v>
-      </c>
-      <c r="AK2">
-        <v>12.994093793607986</v>
-      </c>
-      <c r="AL2">
-        <v>14.60234301824285</v>
-      </c>
-      <c r="AM2">
-        <v>13.397957004328893</v>
-      </c>
-      <c r="AN2">
-        <v>12.618210605934607</v>
-      </c>
       <c r="AO2">
-        <v>15.967214474450037</v>
+        <v>15.967214463678687</v>
       </c>
       <c r="AP2">
-        <v>14.157590014767729</v>
+        <v>14.157590008596083</v>
       </c>
       <c r="AQ2">
-        <v>11.654864854970908</v>
+        <v>11.654864853169308</v>
       </c>
       <c r="AR2">
-        <v>17.017051633742106</v>
+        <v>17.085218233089559</v>
       </c>
       <c r="AS2">
-        <v>13.406283130761745</v>
+        <v>13.406283125652987</v>
       </c>
       <c r="AT2">
-        <v>16.623106287394755</v>
+        <v>16.935465459771567</v>
       </c>
       <c r="AU2">
-        <v>10.752843665014915</v>
+        <v>10.960125204363099</v>
       </c>
       <c r="AV2">
-        <v>11.523633739097692</v>
+        <v>13.051841062039435</v>
       </c>
       <c r="AW2">
-        <v>14.119248317403674</v>
+        <v>14.528030936549113</v>
       </c>
       <c r="AX2">
-        <v>16.494048523201652</v>
+        <v>16.651920496828186</v>
       </c>
       <c r="AY2">
-        <v>16.293439159260185</v>
+        <v>16.293439154837319</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>15.08524154304394</v>
+      </c>
+      <c r="C3">
+        <v>14.378015773074415</v>
+      </c>
+      <c r="D3">
+        <v>15.982707751375441</v>
+      </c>
+      <c r="E3">
+        <v>16.377190086368397</v>
+      </c>
+      <c r="F3">
+        <v>10.823284980447214</v>
+      </c>
+      <c r="G3">
+        <v>14.576112938815983</v>
+      </c>
+      <c r="H3">
+        <v>10.397545589303057</v>
+      </c>
+      <c r="I3">
+        <v>12.871007752794524</v>
+      </c>
+      <c r="J3">
+        <v>17.174599969091965</v>
+      </c>
+      <c r="K3">
+        <v>14.550542341482153</v>
+      </c>
+      <c r="L3">
+        <v>12.963884687652588</v>
+      </c>
+      <c r="M3">
+        <v>13.675031225833159</v>
+      </c>
+      <c r="N3">
         <v>13.20096127938978</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>11.090405638127915</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>14.892747721602248</v>
+      </c>
+      <c r="Q3">
+        <v>11.240920716146711</v>
+      </c>
+      <c r="R3">
+        <v>10.20821246988184</v>
+      </c>
+      <c r="S3">
+        <v>15.650272159339076</v>
+      </c>
+      <c r="T3">
+        <v>13.474568806898505</v>
+      </c>
+      <c r="U3">
+        <v>15.846887928632631</v>
+      </c>
+      <c r="V3">
+        <v>12.04126225235907</v>
+      </c>
+      <c r="W3">
+        <v>11.448362073349545</v>
+      </c>
+      <c r="X3">
+        <v>12.862654482834257</v>
+      </c>
+      <c r="Y3">
+        <v>17.703650696198515</v>
+      </c>
+      <c r="Z3">
+        <v>15.878780568336584</v>
+      </c>
+      <c r="AA3">
+        <v>16.477120355114934</v>
+      </c>
+      <c r="AB3">
+        <v>16.511701220754635</v>
+      </c>
+      <c r="AC3">
+        <v>15.661963080988784</v>
+      </c>
+      <c r="AD3">
+        <v>17.752852399187436</v>
+      </c>
+      <c r="AE3">
+        <v>13.183452714766423</v>
+      </c>
+      <c r="AF3">
+        <v>15.315128964310015</v>
+      </c>
+      <c r="AG3">
+        <v>12.50429131309593</v>
+      </c>
+      <c r="AH3">
+        <v>13.991310972403436</v>
+      </c>
+      <c r="AI3">
+        <v>16.796707362126135</v>
+      </c>
+      <c r="AJ3">
+        <v>13.689053833304746</v>
+      </c>
+      <c r="AK3">
+        <v>14.332911456629342</v>
+      </c>
+      <c r="AL3">
+        <v>14.997888650330646</v>
+      </c>
+      <c r="AM3">
         <v>14.452074840238033</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>11.196423106175704</v>
       </c>
-      <c r="F3">
-        <v>10.666600736648498</v>
-      </c>
-      <c r="G3">
-        <v>14.37539829844215</v>
-      </c>
-      <c r="H3">
-        <v>10.397545586986036</v>
-      </c>
-      <c r="I3">
-        <v>12.87100775581867</v>
-      </c>
-      <c r="J3">
-        <v>17.174599981826844</v>
-      </c>
-      <c r="K3">
-        <v>14.550542342553319</v>
-      </c>
-      <c r="L3">
-        <v>12.963884693915809</v>
-      </c>
-      <c r="M3">
-        <v>13.368519675470008</v>
-      </c>
-      <c r="N3">
-        <v>13.200961281454104</v>
-      </c>
-      <c r="O3">
-        <v>11.090405638629498</v>
-      </c>
-      <c r="P3">
-        <v>14.735695474002741</v>
-      </c>
-      <c r="Q3">
-        <v>11.147535816639689</v>
-      </c>
-      <c r="R3">
-        <v>9.6108703108301761</v>
-      </c>
-      <c r="S3">
-        <v>15.650272165186566</v>
-      </c>
-      <c r="T3">
-        <v>13.378266847516841</v>
-      </c>
-      <c r="U3">
-        <v>15.846887935224292</v>
-      </c>
-      <c r="V3">
-        <v>12.041262259983764</v>
-      </c>
-      <c r="W3">
-        <v>11.448362076391284</v>
-      </c>
-      <c r="X3">
-        <v>12.862654486361786</v>
-      </c>
-      <c r="Y3">
-        <v>17.703650706320154</v>
-      </c>
-      <c r="Z3">
-        <v>15.829330923352492</v>
-      </c>
-      <c r="AA3">
-        <v>16.4771203639318</v>
-      </c>
-      <c r="AB3">
-        <v>16.015801332495634</v>
-      </c>
-      <c r="AC3">
-        <v>15.661963089770492</v>
-      </c>
-      <c r="AD3">
-        <v>17.752852404220949</v>
-      </c>
-      <c r="AE3">
-        <v>12.94287600034095</v>
-      </c>
-      <c r="AF3">
-        <v>15.08125450684909</v>
-      </c>
-      <c r="AG3">
-        <v>12.50429131871644</v>
-      </c>
-      <c r="AH3">
-        <v>13.991310977707011</v>
-      </c>
-      <c r="AI3">
-        <v>16.796707375204363</v>
-      </c>
-      <c r="AJ3">
-        <v>13.689053842536927</v>
-      </c>
-      <c r="AK3">
-        <v>14.33291146407212</v>
-      </c>
-      <c r="AL3">
-        <v>14.464357162290842</v>
-      </c>
-      <c r="AM3">
-        <v>14.452074856008318</v>
-      </c>
-      <c r="AN3">
-        <v>11.196423110667094</v>
-      </c>
       <c r="AO3">
-        <v>16.033480069903526</v>
+        <v>16.318625734277749</v>
       </c>
       <c r="AP3">
-        <v>11.483447377001339</v>
+        <v>11.58700485339598</v>
       </c>
       <c r="AQ3">
-        <v>11.341686553755027</v>
+        <v>11.543594037139135</v>
       </c>
       <c r="AR3">
-        <v>17.87150654801264</v>
+        <v>17.871506541731073</v>
       </c>
       <c r="AS3">
-        <v>12.583967907015586</v>
+        <v>12.706602328343388</v>
       </c>
       <c r="AT3">
-        <v>16.087236978354909</v>
+        <v>16.087236971264058</v>
       </c>
       <c r="AU3">
-        <v>11.618863977643322</v>
+        <v>11.618863976198343</v>
       </c>
       <c r="AV3">
-        <v>11.14210871769043</v>
+        <v>11.142108706707704</v>
       </c>
       <c r="AW3">
-        <v>13.51830386986391</v>
+        <v>13.518303862281977</v>
       </c>
       <c r="AX3">
-        <v>15.49592629802841</v>
+        <v>15.495926292707354</v>
       </c>
       <c r="AY3">
-        <v>17.769018877987804</v>
+        <v>17.834428345959871</v>
       </c>
     </row>
   </sheetData>
